--- a/media/docs/template.xlsx
+++ b/media/docs/template.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemkolpakov/PycharmProjects/Egida/media/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CD761-AF0D-FB47-ADE2-BB917753BAD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391DB3F-DB72-164D-8F5F-8A03F90DBB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="5660" windowWidth="27840" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="5660" windowWidth="27840" windowHeight="12100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основные сведения-Юр.лица" sheetId="2" r:id="rId1"/>
     <sheet name="по зданиям-основные сведения" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="гражданская оборона" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>ИНН</t>
   </si>
@@ -121,13 +121,49 @@
   </si>
   <si>
     <t>Общая площадь помещений (если в жилом доме)</t>
+  </si>
+  <si>
+    <t>Форма собственности</t>
+  </si>
+  <si>
+    <t>Тип здания</t>
+  </si>
+  <si>
+    <t>Группа ЗППП</t>
+  </si>
+  <si>
+    <t>Высота ЗППП</t>
+  </si>
+  <si>
+    <t>Общая площадь ЗППП</t>
+  </si>
+  <si>
+    <t>Материал наружных стен ЗППП</t>
+  </si>
+  <si>
+    <t>Наличие отопления ЗППП</t>
+  </si>
+  <si>
+    <t>Наличие водоразборных кранов холодного и горячего водоснабжения в ЗППП</t>
+  </si>
+  <si>
+    <t>Наличие канализации в ЗППП</t>
+  </si>
+  <si>
+    <t>Наличие освещения</t>
+  </si>
+  <si>
+    <t>Наличие принудительной вентиляции в ЗППП</t>
+  </si>
+  <si>
+    <t>Дополнительные сведения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +184,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,25 +236,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
@@ -572,78 +623,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="8"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G1:L1"/>
@@ -654,6 +700,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -664,7 +715,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -683,78 +734,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
@@ -773,18 +824,11 @@
       <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="E1:E2"/>
@@ -796,6 +840,13 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -803,12 +854,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.83203125" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="73" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/media/docs/template.xlsx
+++ b/media/docs/template.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemkolpakov/PycharmProjects/Egida/media/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391DB3F-DB72-164D-8F5F-8A03F90DBB54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C640C19-216B-BF4F-B74A-A0F2DD0C73EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="5660" windowWidth="27840" windowHeight="12100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основные сведения-Юр.лица" sheetId="2" r:id="rId1"/>
     <sheet name="по зданиям-основные сведения" sheetId="1" r:id="rId2"/>
     <sheet name="гражданская оборона" sheetId="3" r:id="rId3"/>
+    <sheet name="система вентиляции" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>ИНН</t>
   </si>
@@ -157,13 +158,52 @@
   </si>
   <si>
     <t>Дополнительные сведения</t>
+  </si>
+  <si>
+    <t>Количество систем автоматического регулирования приточной установки</t>
+  </si>
+  <si>
+    <t>Техническое состояние системы вентиляции:</t>
+  </si>
+  <si>
+    <t>Пищеблок</t>
+  </si>
+  <si>
+    <t>Спортзал</t>
+  </si>
+  <si>
+    <t>Актовый зал</t>
+  </si>
+  <si>
+    <t>Санузел</t>
+  </si>
+  <si>
+    <t>Прачечная</t>
+  </si>
+  <si>
+    <t>Бассейны</t>
+  </si>
+  <si>
+    <t>Наличие вытяжной вентиляции</t>
+  </si>
+  <si>
+    <t>Техническое состояние вытяжной вентиляции</t>
+  </si>
+  <si>
+    <t>Тип вентиляции</t>
+  </si>
+  <si>
+    <t>Наличие приточной вентиляции</t>
+  </si>
+  <si>
+    <t>Тип воздухонагревателя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +231,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,11 +270,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,18 +322,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -259,10 +349,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,73 +728,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G1:L1"/>
@@ -700,11 +810,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -734,78 +839,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
@@ -824,11 +929,18 @@
       <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="E1:E2"/>
@@ -840,13 +952,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -856,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +1010,7 @@
       <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -914,15 +1019,206 @@
       <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="12"/>
+      <c r="O1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BC755F-5737-B941-A0B6-39B9778E6B67}">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19"/>
+    </row>
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/media/docs/template.xlsx
+++ b/media/docs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemkolpakov/PycharmProjects/Egida/media/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C640C19-216B-BF4F-B74A-A0F2DD0C73EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65228F-B1D6-6A4E-A2A7-65C17954F8D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="основные сведения-Юр.лица" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>ИНН</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Тип воздухонагревателя</t>
+  </si>
+  <si>
+    <t>Название учреждения</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -307,11 +310,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,7 +341,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,25 +370,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,78 +749,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G1:L1"/>
@@ -810,6 +826,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -839,78 +860,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
@@ -929,18 +950,11 @@
       <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="E1:E2"/>
@@ -952,6 +966,13 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -959,10 +980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -982,50 +1003,53 @@
     <col min="14" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="73" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="73" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,174 +1060,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BC755F-5737-B941-A0B6-39B9778E6B67}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="13" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="19"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
     </row>
     <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="G1:G2"/>
@@ -1212,12 +1242,6 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
